--- a/xlsx/西歐_intext.xlsx
+++ b/xlsx/西歐_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="526">
   <si>
     <t>西歐</t>
   </si>
@@ -29,7 +29,7 @@
     <t>CIA</t>
   </si>
   <si>
-    <t>政策_政策_美國_西歐</t>
+    <t>体育运动_体育运动_足球_西歐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
@@ -302,6 +302,30 @@
     <t>摩纳哥</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A6</t>
   </si>
   <si>
@@ -386,456 +410,468 @@
     <t>东欧</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>白俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>爱沙尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>拉脫維亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
+  </si>
+  <si>
+    <t>立陶宛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
+  </si>
+  <si>
+    <t>乌克兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
+  </si>
+  <si>
+    <t>摩尔多瓦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>斯洛維尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>克羅埃西亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
+  </si>
+  <si>
+    <t>波斯尼亚和黑塞哥维那</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
+  </si>
+  <si>
+    <t>蒙特內哥羅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>阿尔巴尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>羅馬尼亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>保加利亞</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>塞尔维亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
+  </si>
+  <si>
+    <t>科索沃</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>馬其頓共和國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
+  </si>
+  <si>
+    <t>馬爾他</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>賽普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>義大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
+  </si>
+  <si>
+    <t>聖座</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>圣马力诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
+  </si>
+  <si>
+    <t>葡萄牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
+  </si>
+  <si>
+    <t>西班牙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
+  </si>
+  <si>
+    <t>安道尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
+  </si>
+  <si>
+    <t>直布罗陀</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>根西岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>曼島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>澤西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>揚馬延島</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>斯瓦尔巴群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>法罗群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
+  </si>
+  <si>
+    <t>馬爾他騎士團</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
+  </si>
+  <si>
+    <t>土耳其</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>哈萨克斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
+  </si>
+  <si>
+    <t>世界地理索引</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>美洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南极洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>大洋洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>各国首都列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
+  </si>
+  <si>
+    <t>世界</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国地理区划列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>亚洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>南亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>东北亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>近东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>中东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
+  </si>
+  <si>
+    <t>远东</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
+  </si>
+  <si>
+    <t>東亞島弧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>東印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
+  </si>
+  <si>
+    <t>印度次大陸</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>北部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>撒哈拉以南非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>拉丁非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>东部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>中部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>南部非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
+  </si>
+  <si>
+    <t>非洲之角</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>西北非洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>大中东地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
+  </si>
+  <si>
+    <t>东南欧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>巴爾幹半島</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
   </si>
   <si>
     <t>歐俄</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>拉脫維亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%B0%94%E5%A4%9A%E7%93%A6</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>斯洛維尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9F%83%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>克羅埃西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
-  </si>
-  <si>
-    <t>波斯尼亚和黑塞哥维那</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
-  </si>
-  <si>
-    <t>蒙特內哥羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%B7%B4%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅馬尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>保加利亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
-  </si>
-  <si>
-    <t>科索沃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
-  </si>
-  <si>
-    <t>馬爾他</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
-  </si>
-  <si>
-    <t>聖座</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%B9%E8%A5%BF%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>根西岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>曼島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BE%A4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>澤西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9A%E9%A6%AC%E5%BB%B6%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>揚馬延島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%93%A6%E5%B0%94%E5%B7%B4%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>斯瓦尔巴群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%BD%97%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
-  </si>
-  <si>
-    <t>馬爾他騎士團</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
-  </si>
-  <si>
-    <t>世界地理索引</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>美洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南极洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%A6%96%E9%83%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>各国首都列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%9C%B0%E7%90%86%E5%8C%BA%E5%88%92%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>联合国地理区划列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>亚洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>南亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>中亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8C%97%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>东北亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>近东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>中东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E4%B8%9C</t>
-  </si>
-  <si>
-    <t>远东</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E%E5%B3%B6%E5%BC%A7</t>
-  </si>
-  <si>
-    <t>東亞島弧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>東印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%AC%A1%E5%A4%A7%E9%99%B8</t>
-  </si>
-  <si>
-    <t>印度次大陸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>北部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%93%88%E6%8B%89%E4%BB%A5%E5%8D%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>撒哈拉以南非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>拉丁非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>东部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>中部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>南部非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E4%B9%8B%E8%A7%92</t>
-  </si>
-  <si>
-    <t>非洲之角</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E9%9D%9E%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>西北非洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%AD%E4%B8%9C%E5%9C%B0%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>大中东地区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E6%AC%A7</t>
-  </si>
-  <si>
-    <t>东南欧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>巴爾幹半島</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
   </si>
   <si>
@@ -972,12 +1008,6 @@
   </si>
   <si>
     <t>阿拉伯世界</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B</t>
@@ -1911,7 +1941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2023,7 +2053,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -2226,7 +2256,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -2864,7 +2894,7 @@
         <v>34</v>
       </c>
       <c r="G33" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -2893,7 +2923,7 @@
         <v>66</v>
       </c>
       <c r="G34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -3328,7 +3358,7 @@
         <v>96</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -3357,7 +3387,7 @@
         <v>98</v>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -3386,7 +3416,7 @@
         <v>100</v>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -3415,7 +3445,7 @@
         <v>102</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -3502,7 +3532,7 @@
         <v>108</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H55" t="s">
         <v>4</v>
@@ -3705,7 +3735,7 @@
         <v>122</v>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -3734,7 +3764,7 @@
         <v>124</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -3763,7 +3793,7 @@
         <v>126</v>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -3821,7 +3851,7 @@
         <v>130</v>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -3850,7 +3880,7 @@
         <v>132</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -3879,7 +3909,7 @@
         <v>134</v>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -3908,7 +3938,7 @@
         <v>136</v>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -3995,7 +4025,7 @@
         <v>142</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -4024,7 +4054,7 @@
         <v>144</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -4105,13 +4135,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>54</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -4134,13 +4164,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -4163,10 +4193,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4192,10 +4222,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4221,10 +4251,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -4250,13 +4280,13 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -4279,10 +4309,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4308,13 +4338,13 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -4337,10 +4367,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4366,13 +4396,13 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -4395,13 +4425,13 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -4424,10 +4454,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4453,10 +4483,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -4482,10 +4512,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -4511,13 +4541,13 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>4</v>
@@ -4540,13 +4570,13 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H91" t="s">
         <v>4</v>
@@ -4569,10 +4599,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4598,10 +4628,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4627,13 +4657,13 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -4656,13 +4686,13 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -4685,13 +4715,13 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -4714,10 +4744,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4743,13 +4773,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -4772,10 +4802,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4801,10 +4831,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4830,13 +4860,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -4859,10 +4889,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4888,10 +4918,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4917,10 +4947,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4946,10 +4976,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4975,13 +5005,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -5010,7 +5040,7 @@
         <v>210</v>
       </c>
       <c r="G107" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -5039,7 +5069,7 @@
         <v>212</v>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5062,10 +5092,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5091,10 +5121,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -5120,10 +5150,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5149,13 +5179,13 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="G112" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
         <v>4</v>
@@ -5184,7 +5214,7 @@
         <v>220</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -5213,7 +5243,7 @@
         <v>222</v>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -5236,10 +5266,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>65</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5265,13 +5295,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -5294,13 +5324,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -5323,13 +5353,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -5352,10 +5382,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5381,10 +5411,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5410,10 +5440,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5439,10 +5469,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5468,13 +5498,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -5497,10 +5527,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5526,10 +5556,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5555,10 +5585,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5584,10 +5614,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5613,10 +5643,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5642,13 +5672,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -5671,10 +5701,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5700,10 +5730,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5729,10 +5759,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5758,10 +5788,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5787,10 +5817,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5816,10 +5846,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5845,10 +5875,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5874,10 +5904,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5903,10 +5933,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5932,10 +5962,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F139" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5961,10 +5991,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5990,10 +6020,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6019,10 +6049,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>124</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6112,7 +6142,7 @@
         <v>278</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6141,7 +6171,7 @@
         <v>280</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>4</v>
@@ -6170,7 +6200,7 @@
         <v>282</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6251,13 +6281,13 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H150" t="s">
         <v>4</v>
@@ -6280,13 +6310,13 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6309,13 +6339,13 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G152" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H152" t="s">
         <v>4</v>
@@ -6338,13 +6368,13 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G153" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H153" t="s">
         <v>4</v>
@@ -6367,10 +6397,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6396,10 +6426,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6425,13 +6455,13 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H156" t="s">
         <v>4</v>
@@ -6576,7 +6606,7 @@
         <v>308</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -6628,10 +6658,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>211</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>212</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6657,10 +6687,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6686,10 +6716,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6715,10 +6745,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6744,13 +6774,13 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H167" t="s">
         <v>4</v>
@@ -6773,10 +6803,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6802,13 +6832,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="G169" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -6866,7 +6896,7 @@
         <v>326</v>
       </c>
       <c r="G171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -6947,10 +6977,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>216</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6976,13 +7006,13 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G175" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7005,10 +7035,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7034,13 +7064,13 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7063,10 +7093,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7092,10 +7122,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7121,13 +7151,13 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7150,13 +7180,13 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7179,10 +7209,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7208,10 +7238,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7237,13 +7267,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G184" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7266,10 +7296,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7295,13 +7325,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -7324,10 +7354,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7353,10 +7383,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7382,10 +7412,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7411,13 +7441,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7440,13 +7470,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7469,13 +7499,13 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192" t="s">
         <v>4</v>
@@ -7498,10 +7528,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7527,10 +7557,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7556,10 +7586,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F195" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7585,10 +7615,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F196" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7614,13 +7644,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F197" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -7643,13 +7673,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F198" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -7672,10 +7702,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7701,10 +7731,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7730,10 +7760,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F201" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7759,10 +7789,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7788,10 +7818,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7817,10 +7847,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F204" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7846,10 +7876,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F205" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7875,10 +7905,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F206" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7904,13 +7934,13 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F207" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H207" t="s">
         <v>4</v>
@@ -7933,10 +7963,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F208" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7962,10 +7992,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F209" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7991,10 +8021,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F210" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8020,10 +8050,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F211" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8049,10 +8079,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F212" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8078,13 +8108,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F213" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8107,10 +8137,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F214" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8136,10 +8166,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F215" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8165,10 +8195,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8194,10 +8224,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8223,10 +8253,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8252,10 +8282,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8281,10 +8311,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8310,10 +8340,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8339,10 +8369,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8368,10 +8398,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8397,10 +8427,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8426,10 +8456,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8455,10 +8485,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8484,10 +8514,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8513,10 +8543,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8542,10 +8572,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8745,10 +8775,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8774,10 +8804,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8803,10 +8833,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8832,10 +8862,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8861,10 +8891,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8890,10 +8920,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8919,10 +8949,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8948,10 +8978,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8977,10 +9007,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9006,10 +9036,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9035,10 +9065,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9064,10 +9094,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9093,10 +9123,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9122,10 +9152,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F249" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9151,10 +9181,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F250" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9180,10 +9210,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F251" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9209,10 +9239,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F252" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9238,10 +9268,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F253" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9267,10 +9297,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F254" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9296,10 +9326,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F255" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9325,10 +9355,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>149</v>
+        <v>491</v>
       </c>
       <c r="F256" t="s">
-        <v>150</v>
+        <v>492</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9499,10 +9529,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>503</v>
+        <v>157</v>
       </c>
       <c r="F262" t="s">
-        <v>504</v>
+        <v>158</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9528,10 +9558,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F263" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9557,13 +9587,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F264" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G264" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -9586,10 +9616,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F265" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9615,10 +9645,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F266" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9644,13 +9674,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F267" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G267" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -9676,15 +9706,189 @@
         <v>513</v>
       </c>
       <c r="F268" t="s">
+        <v>514</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1</v>
+      </c>
+      <c r="H268" t="s">
+        <v>4</v>
+      </c>
+      <c r="I268" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D269" t="n">
+        <v>268</v>
+      </c>
+      <c r="E269" t="s">
         <v>515</v>
       </c>
-      <c r="G268" t="n">
-        <v>1</v>
-      </c>
-      <c r="H268" t="s">
-        <v>4</v>
-      </c>
-      <c r="I268" t="n">
+      <c r="F269" t="s">
+        <v>516</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1</v>
+      </c>
+      <c r="H269" t="s">
+        <v>4</v>
+      </c>
+      <c r="I269" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1</v>
+      </c>
+      <c r="D270" t="n">
+        <v>269</v>
+      </c>
+      <c r="E270" t="s">
+        <v>517</v>
+      </c>
+      <c r="F270" t="s">
+        <v>518</v>
+      </c>
+      <c r="G270" t="n">
+        <v>3</v>
+      </c>
+      <c r="H270" t="s">
+        <v>4</v>
+      </c>
+      <c r="I270" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1</v>
+      </c>
+      <c r="D271" t="n">
+        <v>270</v>
+      </c>
+      <c r="E271" t="s">
+        <v>519</v>
+      </c>
+      <c r="F271" t="s">
+        <v>520</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1</v>
+      </c>
+      <c r="H271" t="s">
+        <v>4</v>
+      </c>
+      <c r="I271" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1</v>
+      </c>
+      <c r="D272" t="n">
+        <v>271</v>
+      </c>
+      <c r="E272" t="s">
+        <v>521</v>
+      </c>
+      <c r="F272" t="s">
+        <v>522</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1</v>
+      </c>
+      <c r="H272" t="s">
+        <v>4</v>
+      </c>
+      <c r="I272" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1</v>
+      </c>
+      <c r="D273" t="n">
+        <v>272</v>
+      </c>
+      <c r="E273" t="s">
+        <v>523</v>
+      </c>
+      <c r="F273" t="s">
+        <v>524</v>
+      </c>
+      <c r="G273" t="n">
+        <v>4</v>
+      </c>
+      <c r="H273" t="s">
+        <v>4</v>
+      </c>
+      <c r="I273" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>273</v>
+      </c>
+      <c r="E274" t="s">
+        <v>523</v>
+      </c>
+      <c r="F274" t="s">
+        <v>525</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1</v>
+      </c>
+      <c r="H274" t="s">
+        <v>4</v>
+      </c>
+      <c r="I274" t="n">
         <v>3</v>
       </c>
     </row>
